--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dll4</t>
   </si>
   <si>
     <t>Notch4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.98898393334348</v>
+        <v>27.62133033333333</v>
       </c>
       <c r="H2">
-        <v>6.98898393334348</v>
+        <v>82.863991</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.984261144236963</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9842611442369629</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4246363064874</v>
+        <v>30.020559</v>
       </c>
       <c r="N2">
-        <v>14.4246363064874</v>
+        <v>90.061677</v>
       </c>
       <c r="O2">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="P2">
-        <v>0.8321182582891892</v>
+        <v>0.8829766276144534</v>
       </c>
       <c r="Q2">
-        <v>100.8135513903635</v>
+        <v>829.207776930323</v>
       </c>
       <c r="R2">
-        <v>100.8135513903635</v>
+        <v>7462.869992372907</v>
       </c>
       <c r="S2">
-        <v>0.8321182582891892</v>
+        <v>0.8690795858302967</v>
       </c>
       <c r="T2">
-        <v>0.8321182582891892</v>
+        <v>0.8690795858302965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.98898393334348</v>
+        <v>27.62133033333333</v>
       </c>
       <c r="H3">
-        <v>6.98898393334348</v>
+        <v>82.863991</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.984261144236963</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9842611442369629</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40516621203162</v>
+        <v>1.426936666666667</v>
       </c>
       <c r="N3">
-        <v>1.40516621203162</v>
+        <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="P3">
-        <v>0.08106023861667132</v>
+        <v>0.04196962907162197</v>
       </c>
       <c r="Q3">
-        <v>9.82068407956611</v>
+        <v>39.41388903474555</v>
       </c>
       <c r="R3">
-        <v>9.82068407956611</v>
+        <v>354.72500131271</v>
       </c>
       <c r="S3">
-        <v>0.08106023861667132</v>
+        <v>0.04130907513323554</v>
       </c>
       <c r="T3">
-        <v>0.08106023861667132</v>
+        <v>0.04130907513323555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.98898393334348</v>
+        <v>27.62133033333333</v>
       </c>
       <c r="H4">
-        <v>6.98898393334348</v>
+        <v>82.863991</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.984261144236963</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9842611442369629</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.558421719974567</v>
+        <v>1.067853</v>
       </c>
       <c r="N4">
-        <v>0.558421719974567</v>
+        <v>3.203559</v>
       </c>
       <c r="O4">
-        <v>0.03221383882012373</v>
+        <v>0.03140811737476231</v>
       </c>
       <c r="P4">
-        <v>0.03221383882012373</v>
+        <v>0.0314081173747623</v>
       </c>
       <c r="Q4">
-        <v>3.902800428932281</v>
+        <v>29.495520460441</v>
       </c>
       <c r="R4">
-        <v>3.902800428932281</v>
+        <v>265.459684143969</v>
       </c>
       <c r="S4">
-        <v>0.03221383882012373</v>
+        <v>0.03091378954561239</v>
       </c>
       <c r="T4">
-        <v>0.03221383882012373</v>
+        <v>0.03091378954561238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>27.62133033333333</v>
+      </c>
+      <c r="H5">
+        <v>82.863991</v>
+      </c>
+      <c r="I5">
+        <v>0.984261144236963</v>
+      </c>
+      <c r="J5">
+        <v>0.9842611442369629</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.483919333333333</v>
+      </c>
+      <c r="N5">
+        <v>4.451758</v>
+      </c>
+      <c r="O5">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="P5">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="Q5">
+        <v>40.98782609401978</v>
+      </c>
+      <c r="R5">
+        <v>368.890434846178</v>
+      </c>
+      <c r="S5">
+        <v>0.04295869372781843</v>
+      </c>
+      <c r="T5">
+        <v>0.04295869372781842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1048673333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.314602</v>
+      </c>
+      <c r="I6">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="J6">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>30.020559</v>
+      </c>
+      <c r="N6">
+        <v>90.061677</v>
+      </c>
+      <c r="O6">
+        <v>0.8829766276144534</v>
+      </c>
+      <c r="P6">
+        <v>0.8829766276144534</v>
+      </c>
+      <c r="Q6">
+        <v>3.148175967506</v>
+      </c>
+      <c r="R6">
+        <v>28.333583707554</v>
+      </c>
+      <c r="S6">
+        <v>0.003299553552294904</v>
+      </c>
+      <c r="T6">
+        <v>0.003299553552294904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1048673333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.314602</v>
+      </c>
+      <c r="I7">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="J7">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.426936666666667</v>
+      </c>
+      <c r="N7">
+        <v>4.28081</v>
+      </c>
+      <c r="O7">
+        <v>0.04196962907162197</v>
+      </c>
+      <c r="P7">
+        <v>0.04196962907162197</v>
+      </c>
+      <c r="Q7">
+        <v>0.1496390430688889</v>
+      </c>
+      <c r="R7">
+        <v>1.34675138762</v>
+      </c>
+      <c r="S7">
+        <v>0.0001568343196873798</v>
+      </c>
+      <c r="T7">
+        <v>0.0001568343196873799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1048673333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.314602</v>
+      </c>
+      <c r="I8">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="J8">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.067853</v>
+      </c>
+      <c r="N8">
+        <v>3.203559</v>
+      </c>
+      <c r="O8">
+        <v>0.03140811737476231</v>
+      </c>
+      <c r="P8">
+        <v>0.0314081173747623</v>
+      </c>
+      <c r="Q8">
+        <v>0.111982896502</v>
+      </c>
+      <c r="R8">
+        <v>1.007846068518</v>
+      </c>
+      <c r="S8">
+        <v>0.0001173675066969529</v>
+      </c>
+      <c r="T8">
+        <v>0.0001173675066969529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6.98898393334348</v>
-      </c>
-      <c r="H5">
-        <v>6.98898393334348</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.946615086080339</v>
-      </c>
-      <c r="N5">
-        <v>0.946615086080339</v>
-      </c>
-      <c r="O5">
-        <v>0.05460766427401575</v>
-      </c>
-      <c r="P5">
-        <v>0.05460766427401575</v>
-      </c>
-      <c r="Q5">
-        <v>6.615877627676044</v>
-      </c>
-      <c r="R5">
-        <v>6.615877627676044</v>
-      </c>
-      <c r="S5">
-        <v>0.05460766427401575</v>
-      </c>
-      <c r="T5">
-        <v>0.05460766427401575</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1048673333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.314602</v>
+      </c>
+      <c r="I9">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="J9">
+        <v>0.003736852651705335</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.483919333333333</v>
+      </c>
+      <c r="N9">
+        <v>4.451758</v>
+      </c>
+      <c r="O9">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="P9">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="Q9">
+        <v>0.1556146633684444</v>
+      </c>
+      <c r="R9">
+        <v>1.400531970316</v>
+      </c>
+      <c r="S9">
+        <v>0.0001630972730260981</v>
+      </c>
+      <c r="T9">
+        <v>0.0001630972730260981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02177466666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.06532399999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.0007759205682735625</v>
+      </c>
+      <c r="J10">
+        <v>0.0007759205682735624</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>30.020559</v>
+      </c>
+      <c r="N10">
+        <v>90.061677</v>
+      </c>
+      <c r="O10">
+        <v>0.8829766276144534</v>
+      </c>
+      <c r="P10">
+        <v>0.8829766276144534</v>
+      </c>
+      <c r="Q10">
+        <v>0.653687665372</v>
+      </c>
+      <c r="R10">
+        <v>5.883188988348</v>
+      </c>
+      <c r="S10">
+        <v>0.0006851197266708805</v>
+      </c>
+      <c r="T10">
+        <v>0.0006851197266708804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02177466666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.06532399999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.0007759205682735625</v>
+      </c>
+      <c r="J11">
+        <v>0.0007759205682735624</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.426936666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.28081</v>
+      </c>
+      <c r="O11">
+        <v>0.04196962907162197</v>
+      </c>
+      <c r="P11">
+        <v>0.04196962907162197</v>
+      </c>
+      <c r="Q11">
+        <v>0.03107107027111111</v>
+      </c>
+      <c r="R11">
+        <v>0.27963963244</v>
+      </c>
+      <c r="S11">
+        <v>3.256509843948354E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.256509843948354E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02177466666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.06532399999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.0007759205682735625</v>
+      </c>
+      <c r="J12">
+        <v>0.0007759205682735624</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.067853</v>
+      </c>
+      <c r="N12">
+        <v>3.203559</v>
+      </c>
+      <c r="O12">
+        <v>0.03140811737476231</v>
+      </c>
+      <c r="P12">
+        <v>0.0314081173747623</v>
+      </c>
+      <c r="Q12">
+        <v>0.023252143124</v>
+      </c>
+      <c r="R12">
+        <v>0.209269288116</v>
+      </c>
+      <c r="S12">
+        <v>2.437020428182832E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.437020428182832E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02177466666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.06532399999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0007759205682735625</v>
+      </c>
+      <c r="J13">
+        <v>0.0007759205682735624</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.483919333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.451758</v>
+      </c>
+      <c r="O13">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="P13">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="Q13">
+        <v>0.03231184884355556</v>
+      </c>
+      <c r="R13">
+        <v>0.290806639592</v>
+      </c>
+      <c r="S13">
+        <v>3.386553888137021E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.38655388813702E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3150376666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.9451130000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01122608254305817</v>
+      </c>
+      <c r="J14">
+        <v>0.01122608254305816</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.020559</v>
+      </c>
+      <c r="N14">
+        <v>90.061677</v>
+      </c>
+      <c r="O14">
+        <v>0.8829766276144534</v>
+      </c>
+      <c r="P14">
+        <v>0.8829766276144534</v>
+      </c>
+      <c r="Q14">
+        <v>9.457606859389003</v>
+      </c>
+      <c r="R14">
+        <v>85.11846173450101</v>
+      </c>
+      <c r="S14">
+        <v>0.009912368505190986</v>
+      </c>
+      <c r="T14">
+        <v>0.009912368505190984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3150376666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.9451130000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01122608254305817</v>
+      </c>
+      <c r="J15">
+        <v>0.01122608254305816</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.426936666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.28081</v>
+      </c>
+      <c r="O15">
+        <v>0.04196962907162197</v>
+      </c>
+      <c r="P15">
+        <v>0.04196962907162197</v>
+      </c>
+      <c r="Q15">
+        <v>0.4495387979477778</v>
+      </c>
+      <c r="R15">
+        <v>4.04584918153</v>
+      </c>
+      <c r="S15">
+        <v>0.0004711545202595619</v>
+      </c>
+      <c r="T15">
+        <v>0.0004711545202595619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3150376666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.9451130000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01122608254305817</v>
+      </c>
+      <c r="J16">
+        <v>0.01122608254305816</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.067853</v>
+      </c>
+      <c r="N16">
+        <v>3.203559</v>
+      </c>
+      <c r="O16">
+        <v>0.03140811737476231</v>
+      </c>
+      <c r="P16">
+        <v>0.0314081173747623</v>
+      </c>
+      <c r="Q16">
+        <v>0.3364139174630001</v>
+      </c>
+      <c r="R16">
+        <v>3.027725257167</v>
+      </c>
+      <c r="S16">
+        <v>0.0003525901181711411</v>
+      </c>
+      <c r="T16">
+        <v>0.0003525901181711409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3150376666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.9451130000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.01122608254305817</v>
+      </c>
+      <c r="J17">
+        <v>0.01122608254305816</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.483919333333333</v>
+      </c>
+      <c r="N17">
+        <v>4.451758</v>
+      </c>
+      <c r="O17">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="P17">
+        <v>0.04364562593916237</v>
+      </c>
+      <c r="Q17">
+        <v>0.467490484294889</v>
+      </c>
+      <c r="R17">
+        <v>4.207414358654001</v>
+      </c>
+      <c r="S17">
+        <v>0.0004899693994364774</v>
+      </c>
+      <c r="T17">
+        <v>0.0004899693994364773</v>
       </c>
     </row>
   </sheetData>
